--- a/biology/Zoologie/Coleonyx_variegatus/Coleonyx_variegatus.xlsx
+++ b/biology/Zoologie/Coleonyx_variegatus/Coleonyx_variegatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Coleonyx variegatus est une espèce de geckos de la famille des Eublepharidae[1]. Il est appelé Western Banded Gecko en anglais ce qui est parfois traduit en Gecko à bandes.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Coleonyx variegatus est une espèce de geckos de la famille des Eublepharidae. Il est appelé Western Banded Gecko en anglais ce qui est parfois traduit en Gecko à bandes.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Californie, au Nevada, en Utah, en Arizona et au Nouveau-Mexique aux États-Unis et en Basse-Californie, en Basse-Californie du Sud et au Sonora au Mexique[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Californie, au Nevada, en Utah, en Arizona et au Nouveau-Mexique aux États-Unis et en Basse-Californie, en Basse-Californie du Sud et au Sonora au Mexique.
 Son biotope naturel est la prairie, les zones semi-désertiques et désertiques.
 </t>
         </is>
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un gecko terrestre et nocturne. Il a un aspect relativement trapu, avec une queue assez épaisse.
 </t>
@@ -574,7 +590,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un insectivore chassant la nuit les insectes et autres arthropodes passant à sa portée.
 </t>
@@ -605,7 +623,9 @@
           <t>Éthologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Il vit dans les zones arides, se cachant de la chaleur et de la sécheresse diurne dans des crevasses.
 </t>
@@ -636,9 +656,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (7 septembre 2012)[2] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (7 septembre 2012) :
 Coleonyx variegatus abbotti Klauber, 1945
 Coleonyx variegatus bogerti Klauber, 1945
 Coleonyx variegatus sonoriensis Klauber, 1945
@@ -671,7 +693,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Baird, 1859 "1858" : Description of new genera and species of North American lizards in the museum of the Smithsonian Institution. Proceedings of the Academy of Natural Sciences of Philadelphia, vol. 10, p. 253-256 (texte intégral).
 Klauber, 1945 : The geckos of the genus Coleonyx with descriptions of new subspecies. Transactions of the San Diego Society of Natural History, vol. 10, n. 11, p. 133-216 (texte intégral).</t>
